--- a/output/amounts.xlsx
+++ b/output/amounts.xlsx
@@ -391,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C1048576"/>
@@ -1286,6 +1286,1349 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Department of Agriculture</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>$2.7B</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Department of Commerce</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>$2.8B</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>$36B</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>$7.0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Department of the Interior</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>$1.5B</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Department of Justice</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>$3.1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Department of Labor</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>$819M</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Department of State</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>$2.6B</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Department of the Treasury</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>$5.4B</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Social Security Administration</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>$2.0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>$1.0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Department of Energy</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>$3.1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Environmental Protection Agency</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>$385M</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Department of Transportation</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>$3.5B</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:19</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>General Services Administration</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>$765M</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:23</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Department of Agriculture</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>$2.7B</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:23</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Department of Commerce</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>$2.8B</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:23</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>$36B</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:23</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>$7.0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:23</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Department of the Interior</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>$1.5B</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:23</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Department of Justice</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>$3.1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:23</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Department of Labor</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>$819M</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:23</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Department of State</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>$2.6B</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:23</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Department of the Treasury</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>$5.4B</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:23</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Social Security Administration</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>$2.0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:23</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>$1.0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:23</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Department of Energy</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>$3.1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Department of Agriculture</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>$2.7B</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Department of Commerce</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$2.8B</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$36B</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>$7.0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Department of the Interior</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>$1.5B</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Department of Justice</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>$3.1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Department of Labor</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>$819M</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Department of State</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>$2.6B</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Department of the Treasury</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>$5.4B</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Social Security Administration</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>$2.0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$1.0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Department of Energy</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>$3.1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Environmental Protection Agency</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>$385M</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Department of Transportation</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>$3.5B</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>General Services Administration</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$765M</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$7.4B</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Department of Housing and Urban Development</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$447M</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>National Aeronautics and Space Administration</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>$2.2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Office of Personnel Management</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>$125M</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Small Business Administration</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$129M</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Department of Veterans Affairs</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$9.1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>U.S. Agency for International Development</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>$256M</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>U.S. Army Corps of Engineers</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>$275M</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>National Archives and Records Administration</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>$99.9M</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>$136M</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2021-11-18 14:29</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Nuclear Regulatory Commission</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>$141M</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Department of Agriculture</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>$2.7B</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Department of Commerce</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$2.8B</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Department of Defense</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$36B</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Department of Health and Human Services</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>$7.0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Department of the Interior</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>$1.5B</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Department of Justice</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$3.1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Department of Labor</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>$819M</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Department of State</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>$2.6B</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Department of the Treasury</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>$5.4B</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Social Security Administration</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>$2.0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Department of Education</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>$1.0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Department of Energy</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>$3.1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Environmental Protection Agency</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>$385M</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Department of Transportation</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>$3.5B</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>General Services Administration</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>$765M</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Department of Homeland Security</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>$7.4B</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Department of Housing and Urban Development</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>$447M</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>National Aeronautics and Space Administration</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>$2.2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Office of Personnel Management</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>$125M</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Small Business Administration</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>$129M</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Department of Veterans Affairs</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>$9.1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>U.S. Agency for International Development</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>$256M</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>U.S. Army Corps of Engineers</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>$275M</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>National Archives and Records Administration</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>$99.9M</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>National Science Foundation</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>$136M</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2021-11-18 15:08</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Nuclear Regulatory Commission</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>$141M</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1297,7 +2640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:G13"/>
@@ -3200,6 +4543,1486 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>005-000003311</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-1001 Customer Engagement and Management Services</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>$26.475</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>005-000003415</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Rural Development</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>RD-Commercial Loans, Grants &amp; Guarantees (CLGG)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>$21.198</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>005-000001870</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Farm Service Agency</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>FPAC-FSA-097 Farm Program Modernization (MIDAS)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>$8.369</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>005-000000018</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Agricultural Marketing Service</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MRP-AMS-Web-Based Supply Chain Management (WBSCM)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>$31.642</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>005-000003190</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SO-OCFO-NFC-Human Capital Management Services</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>005-999990010</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NRE-FS-Recreation.gov</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>$0.001</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>005-000003297</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NRE-FS-Open Forest (FS Enterprise ePermit)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>$2.000</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>005-000002223</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NRE-FS-Natural Resource Manager (NRM)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>$29.185</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>005-000000039</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DA-OCP-Integrated Acquisition System (IAS)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>005-000003325</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Farm Service Agency</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>FPAC-FSA-127 Geospatial Services</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>$47.745</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>005-000003195</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SO-OCFO-NFC-Employee Services</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>005-000003353</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DA-OCX-Customer Experience</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>$0.300</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>005-000001425</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SO-OCFO-Financial Management Modernization Initiative (FMMI)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>$121.330</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>005-000003220</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Foreign Agricultural Service</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TFAA-FAS-IMART</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>$3.639</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>005-000000185</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Certification, Accreditation, Registration, Permitting, and Other Licensing (CARPOL)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>$16.427</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>005-000001605</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Agricultural Marketing Service</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MRP-AMS-Conformance Management</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>$20.851</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>005-000003327</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SO-OCIO-DISC-Robotics Process Automation (RPA)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>005-000000235</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SO-OCFO-NFC-Payroll Services</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>005-000003435</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NRE-FS-Mission Support Services</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>$48.711</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>005-000000035</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SO-OCIO-DISC-AgLearn</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>005-000000073</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NRE-FS-AgPRS - USDA Public Safety Land Mobile Radio System</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>$42.569</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>005-000002376</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Natural Resources Conservation Service</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>FPAC-NRCS-Conservation Delivery Streamline Initiative (CDSI)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>$2.672</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>005-000003297</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NRE-FS-Open Forest (FS Enterprise ePermit)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>$2.000</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>005-000003440</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NRE-FS-Wildland Fire &amp; Aviation Management</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>$38.700</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>005-000003240</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Executive Operations</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DA-OES-Correspondence Management System (CMS)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>005-000002148</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Food Safety and Inspection Service</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>FS-FSIS-Public Health Information System (PHIS)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>$6.610</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>005-000001659</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Animal Disease Traceability Information System (ADTIS)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>$4.354</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>005-000003325</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Farm Service Agency</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>FPAC-FSA-127 Geospatial Services</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>$47.745</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>005-000003353</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DA-OCX-Customer Experience</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>$0.300</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>005-000002394</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Food and Nutrition Service</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>FNCS-FNS-Supplemental Nutrition Assistance Program (SNAP) Support</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>$9.289</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>005-000001425</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SO-OCFO-Financial Management Modernization Initiative (FMMI)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>$121.330</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>005-000003245</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NRE-FS-Interagency Resource Ordering Capability (IROC)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>$2.673</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>005-000001605</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Agricultural Marketing Service</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MRP-AMS-Conformance Management</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>$20.851</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>005-000000185</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Animal and Plant Health Inspection Service</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MRP-APHIS-Certification, Accreditation, Registration, Permitting, and Other Licensing (CARPOL)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>$16.427</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>005-000003255</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DA-OO-Emergency Response</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>$0.321</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>005-000003326</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Office of the Secretary</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DA-OCX-Contact Center</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>005-999990010</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Forest Service</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NRE-FS-Recreation.gov</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>$0.001</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>005-000003010</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Office of Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SO-OCFO-FSSP-Pegasys</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>$33.380</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>005-000000035</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Office of Chief Information Officer</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SO-OCIO-DISC-AgLearn</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>$0.000</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>005-000003311</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Farm Production and Conservation Business Center</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FPAC-FBC-1001 Customer Engagement and Management Services</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>$26.475</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Major IT</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
